--- a/Voidfinding/RecoveryAndErrorRates.xlsx
+++ b/Voidfinding/RecoveryAndErrorRates.xlsx
@@ -11570,7 +11570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>

--- a/Voidfinding/RecoveryAndErrorRates.xlsx
+++ b/Voidfinding/RecoveryAndErrorRates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="spheres" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -109,19 +109,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -148,19 +142,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -195,21 +183,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -348,21 +339,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -493,11 +487,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1922218336"/>
-        <c:axId val="-1923282784"/>
+        <c:axId val="-86268368"/>
+        <c:axId val="-86266320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1922218336"/>
+        <c:axId val="-86268368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,9 +504,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -526,8 +520,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -538,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1923282784"/>
+        <c:crossAx val="-86266320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1923282784"/>
+        <c:axId val="-86266320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,9 +551,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -584,8 +579,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -596,7 +592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1922218336"/>
+        <c:crossAx val="-86268368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,8 +622,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -644,28 +641,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -694,10 +680,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -708,19 +694,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -747,19 +727,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -794,21 +768,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -947,21 +924,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1092,11 +1072,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1922239952"/>
-        <c:axId val="-1878349744"/>
+        <c:axId val="-88892512"/>
+        <c:axId val="-89118640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1922239952"/>
+        <c:axId val="-88892512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,9 +1089,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1125,8 +1105,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1137,7 +1118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878349744"/>
+        <c:crossAx val="-89118640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1878349744"/>
+        <c:axId val="-89118640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,9 +1136,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1183,8 +1164,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1195,7 +1177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1922239952"/>
+        <c:crossAx val="-88892512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,8 +1207,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1243,28 +1226,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1293,10 +1265,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1307,19 +1279,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1346,19 +1312,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1393,21 +1353,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1546,21 +1509,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1691,11 +1657,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1923351584"/>
-        <c:axId val="-1923412720"/>
+        <c:axId val="-58695840"/>
+        <c:axId val="-58693088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1923351584"/>
+        <c:axId val="-58695840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,9 +1674,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1724,8 +1690,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1736,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1923412720"/>
+        <c:crossAx val="-58693088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1744,7 +1711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1923412720"/>
+        <c:axId val="-58693088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,9 +1721,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1782,8 +1749,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1794,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1923351584"/>
+        <c:crossAx val="-58695840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1824,8 +1792,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1842,28 +1811,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1892,10 +1850,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1906,19 +1864,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1945,19 +1897,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1992,21 +1938,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -2145,21 +2094,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -2290,11 +2242,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1878675696"/>
-        <c:axId val="-1878609296"/>
+        <c:axId val="-170306944"/>
+        <c:axId val="-170304624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1878675696"/>
+        <c:axId val="-170306944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,9 +2259,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2323,8 +2275,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2335,7 +2288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878609296"/>
+        <c:crossAx val="-170304624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1878609296"/>
+        <c:axId val="-170304624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,9 +2306,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2381,8 +2334,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2393,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878675696"/>
+        <c:crossAx val="-170306944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2423,8 +2377,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2441,28 +2396,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2491,10 +2435,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2505,19 +2449,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2544,19 +2482,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2591,21 +2523,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -2744,21 +2679,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -2889,11 +2827,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1871386400"/>
-        <c:axId val="-1871660912"/>
+        <c:axId val="-58669712"/>
+        <c:axId val="-58666960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1871386400"/>
+        <c:axId val="-58669712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,9 +2844,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2922,8 +2860,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2934,7 +2873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871660912"/>
+        <c:crossAx val="-58666960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2942,7 +2881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1871660912"/>
+        <c:axId val="-58666960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,9 +2891,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2980,8 +2919,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2992,7 +2932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871386400"/>
+        <c:crossAx val="-58669712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3022,8 +2962,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3040,28 +2981,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3090,10 +3020,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3104,19 +3034,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3143,19 +3067,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3190,21 +3108,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -3313,21 +3234,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -3428,11 +3352,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1853201488"/>
-        <c:axId val="-1853200128"/>
+        <c:axId val="-58635200"/>
+        <c:axId val="-58632448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1853201488"/>
+        <c:axId val="-58635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,9 +3369,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3461,8 +3385,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3473,7 +3398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1853200128"/>
+        <c:crossAx val="-58632448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3481,7 +3406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1853200128"/>
+        <c:axId val="-58632448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,9 +3416,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3519,8 +3444,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3531,7 +3457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1853201488"/>
+        <c:crossAx val="-58635200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3561,8 +3487,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3579,28 +3506,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3629,10 +3545,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3643,19 +3559,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3682,19 +3592,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3729,21 +3633,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -3852,21 +3759,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -3967,11 +3877,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1923564192"/>
-        <c:axId val="-1876166480"/>
+        <c:axId val="-58607472"/>
+        <c:axId val="-58604720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1923564192"/>
+        <c:axId val="-58607472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,9 +3894,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4000,8 +3910,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4012,7 +3923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1876166480"/>
+        <c:crossAx val="-58604720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4020,7 +3931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1876166480"/>
+        <c:axId val="-58604720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4030,9 +3941,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4058,8 +3969,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4070,7 +3982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1923564192"/>
+        <c:crossAx val="-58607472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4100,8 +4012,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4118,28 +4031,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4168,10 +4070,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4182,19 +4084,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -4221,19 +4117,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4268,21 +4158,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -4391,21 +4284,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -4506,11 +4402,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1847782848"/>
-        <c:axId val="-1874271472"/>
+        <c:axId val="-58578368"/>
+        <c:axId val="-58575616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1847782848"/>
+        <c:axId val="-58578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,9 +4419,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4539,8 +4435,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4551,7 +4448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1874271472"/>
+        <c:crossAx val="-58575616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4559,7 +4456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1874271472"/>
+        <c:axId val="-58575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,9 +4466,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4597,8 +4494,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4609,7 +4507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1847782848"/>
+        <c:crossAx val="-58578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4639,8 +4537,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4657,28 +4556,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4707,10 +4595,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4721,19 +4609,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -4760,19 +4642,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4796,21 +4672,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -4908,21 +4787,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -5023,11 +4905,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1872229392"/>
-        <c:axId val="-1878900800"/>
+        <c:axId val="-86287040"/>
+        <c:axId val="-86273472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1872229392"/>
+        <c:axId val="-86287040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,9 +4922,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5056,8 +4938,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5068,7 +4951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1878900800"/>
+        <c:crossAx val="-86273472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5076,7 +4959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1878900800"/>
+        <c:axId val="-86273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,9 +4969,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5114,8 +4997,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5126,7 +5010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1872229392"/>
+        <c:crossAx val="-86287040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5156,8 +5040,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5174,28 +5059,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5218,393 +5092,278 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5612,44 +5371,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5668,6 +5420,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5756,18 +5516,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5777,20 +5540,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5804,14 +5567,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5825,8 +5588,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5838,7 +5602,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5851,9 +5615,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5868,13 +5632,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5886,14 +5651,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5905,13 +5670,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5920,8 +5686,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5931,7 +5698,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5939,7 +5706,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5947,16 +5714,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5969,14 +5737,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5988,19 +5756,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6009,7 +5770,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -6024,8 +5785,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6035,7 +5797,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6043,9 +5805,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6056,8 +5818,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6067,40 +5830,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6108,44 +5873,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6164,6 +5922,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6252,18 +6018,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6273,20 +6042,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6300,14 +6069,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6321,8 +6090,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6334,7 +6104,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6347,9 +6117,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6364,13 +6134,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6382,14 +6153,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6401,13 +6172,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6416,8 +6188,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6427,7 +6200,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -6435,7 +6208,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6443,16 +6216,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6465,14 +6239,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6484,19 +6258,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6505,7 +6272,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -6520,8 +6287,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6531,7 +6299,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6539,9 +6307,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6552,8 +6320,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6563,40 +6332,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6604,44 +6375,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6660,6 +6424,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6748,18 +6520,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6769,20 +6544,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6796,14 +6571,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6817,8 +6592,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6830,7 +6606,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6843,9 +6619,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6860,13 +6636,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6878,14 +6655,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6897,13 +6674,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6912,8 +6690,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6923,7 +6702,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -6931,7 +6710,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6939,16 +6718,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6961,14 +6741,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6980,19 +6760,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7001,7 +6774,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7016,8 +6789,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7027,7 +6801,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7035,9 +6809,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7048,8 +6822,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7059,40 +6834,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7100,44 +6877,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7156,6 +6926,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -7244,18 +7022,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7265,20 +7046,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7292,14 +7073,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7313,8 +7094,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7326,7 +7108,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7339,9 +7121,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7356,13 +7138,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7374,14 +7157,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7393,13 +7176,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7408,8 +7192,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7419,7 +7204,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -7427,7 +7212,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7435,16 +7220,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7457,14 +7243,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7476,19 +7262,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7497,7 +7276,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7512,8 +7291,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7523,7 +7303,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7531,9 +7311,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7544,8 +7324,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7555,40 +7336,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7596,44 +7379,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7652,6 +7428,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -7740,18 +7524,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7761,20 +7548,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7788,14 +7575,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7809,8 +7596,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7822,7 +7610,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7835,9 +7623,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7852,13 +7640,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7870,14 +7659,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7889,13 +7678,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7904,8 +7694,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7915,7 +7706,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -7923,7 +7714,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7931,16 +7722,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7953,14 +7745,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7972,19 +7764,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7993,7 +7778,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8008,8 +7793,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8019,7 +7805,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8027,9 +7813,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8040,8 +7826,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8051,40 +7838,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8092,44 +7881,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8148,6 +7930,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8236,18 +8026,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8257,20 +8050,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8284,14 +8077,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8305,8 +8098,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8318,7 +8112,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8331,9 +8125,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8348,13 +8142,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8366,14 +8161,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8385,13 +8180,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8400,8 +8196,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8411,7 +8208,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8419,7 +8216,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8427,16 +8224,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8449,14 +8247,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8468,19 +8266,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8489,7 +8280,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8504,8 +8295,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8515,7 +8307,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8523,9 +8315,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8536,8 +8328,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8547,40 +8340,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8588,44 +8383,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8644,6 +8432,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8732,18 +8528,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8753,20 +8552,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8780,14 +8579,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8801,8 +8600,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8814,7 +8614,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8827,9 +8627,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8844,13 +8644,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8862,14 +8663,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8881,13 +8682,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8896,8 +8698,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8907,7 +8710,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8915,7 +8718,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8923,16 +8726,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8945,14 +8749,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8964,19 +8768,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8985,7 +8782,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -9000,8 +8797,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9011,7 +8809,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9019,9 +8817,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9032,8 +8830,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9043,40 +8842,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9084,44 +8885,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9140,6 +8934,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -9228,18 +9030,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9249,20 +9054,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9276,14 +9081,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9297,8 +9102,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9310,7 +9116,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -9323,9 +9129,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9340,13 +9146,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9358,14 +9165,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9377,13 +9184,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9392,8 +9200,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9403,7 +9212,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -9411,7 +9220,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9419,16 +9228,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9441,14 +9251,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9460,19 +9270,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9481,7 +9284,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -9496,8 +9299,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9507,7 +9311,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9515,9 +9319,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9528,8 +9332,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9539,40 +9344,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9580,44 +9387,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9636,6 +9436,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -9724,18 +9532,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9745,20 +9556,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9772,14 +9583,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9793,8 +9604,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9806,7 +9618,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -9819,9 +9631,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9836,13 +9648,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9854,14 +9667,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9873,13 +9686,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9888,8 +9702,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9899,7 +9714,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -9907,7 +9722,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9915,16 +9730,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9937,14 +9753,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9956,19 +9772,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9977,7 +9786,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -9992,8 +9801,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10003,7 +9813,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10011,9 +9821,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10024,8 +9834,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10035,7 +9846,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -10586,7 +10397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF19"/>
   <sheetViews>
-    <sheetView topLeftCell="L11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -11570,7 +11381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>

--- a/Voidfinding/RecoveryAndErrorRates.xlsx
+++ b/Voidfinding/RecoveryAndErrorRates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="spheres" sheetId="1" r:id="rId1"/>
@@ -487,11 +487,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-86268368"/>
-        <c:axId val="-86266320"/>
+        <c:axId val="924028160"/>
+        <c:axId val="881226240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-86268368"/>
+        <c:axId val="924028160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86266320"/>
+        <c:crossAx val="881226240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -541,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-86266320"/>
+        <c:axId val="881226240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86268368"/>
+        <c:crossAx val="924028160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -652,6 +652,2852 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50.000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>irr!$C$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.639</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>irr!$C$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.043</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.089</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="924095520"/>
+        <c:axId val="924097568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="924095520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924097568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="924097568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924095520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.633</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.643</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1008199408"/>
+        <c:axId val="1008811264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1008199408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008811264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008811264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008199408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5.000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.392</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1049740736"/>
+        <c:axId val="1010645760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1049740736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010645760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1010645760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049740736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10.000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.654</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013637696"/>
+        <c:axId val="1009909856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013637696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009909856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1009909856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013637696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50.000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.639</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irr!$C$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.043</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.089</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.039</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1011665168"/>
+        <c:axId val="1008940752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1011665168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008940752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1008940752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011665168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1072,11 +3918,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-88892512"/>
-        <c:axId val="-89118640"/>
+        <c:axId val="881247728"/>
+        <c:axId val="881250480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-88892512"/>
+        <c:axId val="881247728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +3964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-89118640"/>
+        <c:crossAx val="881250480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +3972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-89118640"/>
+        <c:axId val="881250480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +4023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-88892512"/>
+        <c:crossAx val="881247728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +4503,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-58695840"/>
-        <c:axId val="-58693088"/>
+        <c:axId val="924050528"/>
+        <c:axId val="924052848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-58695840"/>
+        <c:axId val="924050528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +4549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58693088"/>
+        <c:crossAx val="924052848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +4557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58693088"/>
+        <c:axId val="924052848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +4608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58695840"/>
+        <c:crossAx val="924050528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,11 +5088,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-170306944"/>
-        <c:axId val="-170304624"/>
+        <c:axId val="924079760"/>
+        <c:axId val="924082512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-170306944"/>
+        <c:axId val="924079760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +5134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-170304624"/>
+        <c:crossAx val="924082512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +5142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-170304624"/>
+        <c:axId val="924082512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +5193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-170306944"/>
+        <c:crossAx val="924079760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2827,11 +5673,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-58669712"/>
-        <c:axId val="-58666960"/>
+        <c:axId val="843666816"/>
+        <c:axId val="843668176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-58669712"/>
+        <c:axId val="843666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +5719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58666960"/>
+        <c:crossAx val="843668176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2881,7 +5727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58666960"/>
+        <c:axId val="843668176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,7 +5778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58669712"/>
+        <c:crossAx val="843666816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,7 +5941,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$2</c:f>
+              <c:f>spheres!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3148,69 +5994,99 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$2:$V$2</c:f>
+              <c:f>spheres!$C$2:$AF$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.947</c:v>
+                  <c:v>0.914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.793</c:v>
+                  <c:v>0.928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.572</c:v>
+                  <c:v>0.986</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.921</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.795</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.716</c:v>
+                  <c:v>0.912</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.977</c:v>
+                  <c:v>0.991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.919</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.996</c:v>
+                  <c:v>0.964</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.786</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.986</c:v>
+                  <c:v>0.781</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.971</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.923</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
+                <c:pt idx="20">
+                  <c:v>0.683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.953</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,11 +6097,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$3</c:f>
+              <c:f>spheres!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error rate</c:v>
+                  <c:v>error rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3274,69 +6150,99 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$3:$V$3</c:f>
+              <c:f>spheres!$C$3:$AF$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.571</c:v>
+                  <c:v>0.449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.634</c:v>
+                  <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>0.332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.282</c:v>
+                  <c:v>0.173</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.637</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.659</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.686</c:v>
+                  <c:v>0.233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.133</c:v>
+                  <c:v>0.089</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.681</c:v>
+                  <c:v>0.393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.452</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.775</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.633</c:v>
+                  <c:v>0.335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.487</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.643</c:v>
+                  <c:v>0.068</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.052</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
+                <c:pt idx="20">
+                  <c:v>0.032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.413</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,11 +6258,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-58635200"/>
-        <c:axId val="-58632448"/>
+        <c:axId val="964501456"/>
+        <c:axId val="964503936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-58635200"/>
+        <c:axId val="964501456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +6304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58632448"/>
+        <c:crossAx val="964503936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +6312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58632448"/>
+        <c:axId val="964503936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +6363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58635200"/>
+        <c:crossAx val="964501456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3502,7 +6408,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3573,7 +6479,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>5.000 points</a:t>
+              <a:t>1.000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3620,7 +6526,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$5</c:f>
+              <c:f>irr!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3673,69 +6579,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$5:$V$5</c:f>
+              <c:f>irr!$C$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.786</c:v>
+                  <c:v>0.947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.595</c:v>
+                  <c:v>0.793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.909</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.952</c:v>
+                  <c:v>0.572</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.705</c:v>
+                  <c:v>0.921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.759</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.914</c:v>
+                  <c:v>0.716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65</c:v>
+                  <c:v>0.977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.922</c:v>
+                  <c:v>0.919</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.871</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.875</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.255</c:v>
+                  <c:v>0.786</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.392</c:v>
+                  <c:v>0.986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.505</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.836</c:v>
+                  <c:v>0.923</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.571</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3746,7 +6652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$6</c:f>
+              <c:f>irr!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3799,69 +6705,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$6:$V$6</c:f>
+              <c:f>irr!$C$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.235</c:v>
+                  <c:v>0.571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.154</c:v>
+                  <c:v>0.634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.178</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.119</c:v>
+                  <c:v>0.282</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.106</c:v>
+                  <c:v>0.637</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.265</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.231</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.193</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.137</c:v>
+                  <c:v>0.633</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.241</c:v>
+                  <c:v>0.487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.196</c:v>
+                  <c:v>0.643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.248</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.093</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.235</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,11 +6783,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-58607472"/>
-        <c:axId val="-58604720"/>
+        <c:axId val="881290000"/>
+        <c:axId val="881292752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-58607472"/>
+        <c:axId val="881290000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,7 +6829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58604720"/>
+        <c:crossAx val="881292752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3931,7 +6837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58604720"/>
+        <c:axId val="881292752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3982,7 +6888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58607472"/>
+        <c:crossAx val="881290000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4098,7 +7004,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>10.000 points</a:t>
+              <a:t>5.000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4145,7 +7051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$8</c:f>
+              <c:f>irr!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4198,69 +7104,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$8:$V$8</c:f>
+              <c:f>irr!$C$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.641</c:v>
+                  <c:v>0.786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.499</c:v>
+                  <c:v>0.595</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.922</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.996</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.944</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.408</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.888</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.872</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.975</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.955</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.986</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.876</c:v>
+                  <c:v>0.871</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.641</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.654</c:v>
+                  <c:v>0.392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.602</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.985</c:v>
+                  <c:v>0.836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.999</c:v>
+                  <c:v>0.571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,7 +7177,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>irr!$B$9</c:f>
+              <c:f>irr!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4324,69 +7230,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$9:$V$9</c:f>
+              <c:f>irr!$C$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.121</c:v>
+                  <c:v>0.235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.104</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.175</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.199</c:v>
+                  <c:v>0.178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17</c:v>
+                  <c:v>0.119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.503</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.169</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.227</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.111</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.185</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.223</c:v>
+                  <c:v>0.265</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.132</c:v>
+                  <c:v>0.101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15</c:v>
+                  <c:v>0.231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.149</c:v>
+                  <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.118</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.194</c:v>
+                  <c:v>0.241</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.179</c:v>
+                  <c:v>0.196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.251</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.143</c:v>
+                  <c:v>0.093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.143</c:v>
+                  <c:v>0.235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,11 +7308,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-58578368"/>
-        <c:axId val="-58575616"/>
+        <c:axId val="881317424"/>
+        <c:axId val="881320176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-58578368"/>
+        <c:axId val="881317424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,7 +7354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58575616"/>
+        <c:crossAx val="881320176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4456,7 +7362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58575616"/>
+        <c:axId val="881320176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +7413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58578368"/>
+        <c:crossAx val="881317424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4623,7 +7529,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>50.000 points</a:t>
+              <a:t>10.000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4668,6 +7574,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recovery rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -4712,69 +7629,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$11:$V$11</c:f>
+              <c:f>irr!$C$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.729</c:v>
+                  <c:v>0.641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.284</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.878</c:v>
+                  <c:v>0.944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.532</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.737</c:v>
+                  <c:v>0.408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.889</c:v>
+                  <c:v>0.888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.517</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.762</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.995</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.948</c:v>
+                  <c:v>0.975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.798</c:v>
+                  <c:v>0.955</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.997</c:v>
+                  <c:v>0.986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.659</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.639</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.636</c:v>
+                  <c:v>0.641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.361</c:v>
+                  <c:v>0.654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.623</c:v>
+                  <c:v>0.602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.854</c:v>
+                  <c:v>0.985</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.897</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,6 +7700,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irr!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -4827,69 +7755,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>irr!$C$12:$V$12</c:f>
+              <c:f>irr!$C$9:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.062</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.037</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.073</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.084</c:v>
+                  <c:v>0.199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.076</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.164</c:v>
+                  <c:v>0.503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.093</c:v>
+                  <c:v>0.169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.097</c:v>
+                  <c:v>0.227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.068</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.061</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.029</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.043</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.051</c:v>
+                  <c:v>0.149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.061</c:v>
+                  <c:v>0.118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.116</c:v>
+                  <c:v>0.194</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.142</c:v>
+                  <c:v>0.179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.089</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.039</c:v>
+                  <c:v>0.143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.089</c:v>
+                  <c:v>0.143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4905,11 +7833,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-86287040"/>
-        <c:axId val="-86273472"/>
+        <c:axId val="881347632"/>
+        <c:axId val="881350384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-86287040"/>
+        <c:axId val="881347632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +7879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86273472"/>
+        <c:crossAx val="881350384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4959,7 +7887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-86273472"/>
+        <c:axId val="881350384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5010,7 +7938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-86287040"/>
+        <c:crossAx val="881347632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5114,6 +8042,181 @@
   </cs:variation>
   <cs:variation>
     <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -5836,6 +8939,2504 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
@@ -10004,6 +15605,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10042,15 +15675,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10124,6 +15757,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10397,8 +16158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11381,8 +17142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Voidfinding/RecoveryAndErrorRates.xlsx
+++ b/Voidfinding/RecoveryAndErrorRates.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="spheres" sheetId="1" r:id="rId1"/>
-    <sheet name="irr" sheetId="2" r:id="rId2"/>
+    <sheet name="RegTable" sheetId="4" r:id="rId2"/>
+    <sheet name="irr" sheetId="2" r:id="rId3"/>
+    <sheet name="irrTable" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>Recovery rate</t>
   </si>
@@ -38,15 +40,74 @@
   <si>
     <t>Error rate</t>
   </si>
+  <si>
+    <t>Void Nr</t>
+  </si>
+  <si>
+    <t>1000 Points</t>
+  </si>
+  <si>
+    <t>5000 Points</t>
+  </si>
+  <si>
+    <t>10000 Points</t>
+  </si>
+  <si>
+    <t>50000 Points</t>
+  </si>
+  <si>
+    <t>1000 points</t>
+  </si>
+  <si>
+    <t>100000 Points</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -68,17 +129,492 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,11 +1023,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="924028160"/>
-        <c:axId val="881226240"/>
+        <c:axId val="-252934288"/>
+        <c:axId val="-242087296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="924028160"/>
+        <c:axId val="-252934288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +1069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881226240"/>
+        <c:crossAx val="-242087296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -541,7 +1077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881226240"/>
+        <c:axId val="-242087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +1128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924028160"/>
+        <c:crossAx val="-252934288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,11 +1526,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="924095520"/>
-        <c:axId val="924097568"/>
+        <c:axId val="-241972080"/>
+        <c:axId val="-241969328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="924095520"/>
+        <c:axId val="-241972080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924097568"/>
+        <c:crossAx val="-241969328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924097568"/>
+        <c:axId val="-241969328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924095520"/>
+        <c:crossAx val="-241972080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,11 +2098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1008199408"/>
-        <c:axId val="1008811264"/>
+        <c:axId val="-252776448"/>
+        <c:axId val="-252774384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1008199408"/>
+        <c:axId val="-252776448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,12 +2143,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008811264"/>
+        <c:crossAx val="-252774384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1008811264"/>
+        <c:axId val="-252774384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +2198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008199408"/>
+        <c:crossAx val="-252776448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,11 +2675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1049740736"/>
-        <c:axId val="1010645760"/>
+        <c:axId val="-252746144"/>
+        <c:axId val="-252743664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1049740736"/>
+        <c:axId val="-252746144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1010645760"/>
+        <c:crossAx val="-252743664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1010645760"/>
+        <c:axId val="-252743664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1049740736"/>
+        <c:crossAx val="-252746144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2717,11 +3253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1013637696"/>
-        <c:axId val="1009909856"/>
+        <c:axId val="-241168656"/>
+        <c:axId val="-241166176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1013637696"/>
+        <c:axId val="-241168656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,12 +3311,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009909856"/>
+        <c:crossAx val="-241166176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1009909856"/>
+        <c:axId val="-241166176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +3370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013637696"/>
+        <c:crossAx val="-241168656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3311,11 +3847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1011665168"/>
-        <c:axId val="1008940752"/>
+        <c:axId val="-241942848"/>
+        <c:axId val="-241940368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1011665168"/>
+        <c:axId val="-241942848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,12 +3905,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008940752"/>
+        <c:crossAx val="-241940368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1008940752"/>
+        <c:axId val="-241940368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +3964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011665168"/>
+        <c:crossAx val="-241942848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3918,11 +4454,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="881247728"/>
-        <c:axId val="881250480"/>
+        <c:axId val="-252903376"/>
+        <c:axId val="-252900624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="881247728"/>
+        <c:axId val="-252903376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +4500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881250480"/>
+        <c:crossAx val="-252900624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3972,7 +4508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881250480"/>
+        <c:axId val="-252900624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +4559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881247728"/>
+        <c:crossAx val="-252903376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4503,11 +5039,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="924050528"/>
-        <c:axId val="924052848"/>
+        <c:axId val="-252876720"/>
+        <c:axId val="-252873968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="924050528"/>
+        <c:axId val="-252876720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,7 +5085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924052848"/>
+        <c:crossAx val="-252873968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4557,7 +5093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924052848"/>
+        <c:axId val="-252873968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,7 +5144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924050528"/>
+        <c:crossAx val="-252876720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5088,11 +5624,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="924079760"/>
-        <c:axId val="924082512"/>
+        <c:axId val="-252849728"/>
+        <c:axId val="-252846976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="924079760"/>
+        <c:axId val="-252849728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +5670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924082512"/>
+        <c:crossAx val="-252846976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5142,7 +5678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924082512"/>
+        <c:axId val="-252846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,7 +5729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924079760"/>
+        <c:crossAx val="-252849728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5673,11 +6209,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="843666816"/>
-        <c:axId val="843668176"/>
+        <c:axId val="-252816688"/>
+        <c:axId val="-252813936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="843666816"/>
+        <c:axId val="-252816688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5719,7 +6255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843668176"/>
+        <c:crossAx val="-252813936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5727,7 +6263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843668176"/>
+        <c:axId val="-252813936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5778,7 +6314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843666816"/>
+        <c:crossAx val="-252816688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6258,11 +6794,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="964501456"/>
-        <c:axId val="964503936"/>
+        <c:axId val="-252789696"/>
+        <c:axId val="-252786944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="964501456"/>
+        <c:axId val="-252789696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6304,7 +6840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964503936"/>
+        <c:crossAx val="-252786944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6312,7 +6848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964503936"/>
+        <c:axId val="-252786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,7 +6899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964501456"/>
+        <c:crossAx val="-252789696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6783,11 +7319,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="881290000"/>
-        <c:axId val="881292752"/>
+        <c:axId val="-242058672"/>
+        <c:axId val="-242055920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="881290000"/>
+        <c:axId val="-242058672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6829,7 +7365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881292752"/>
+        <c:crossAx val="-242055920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6837,7 +7373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881292752"/>
+        <c:axId val="-242055920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,7 +7424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881290000"/>
+        <c:crossAx val="-242058672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7308,11 +7844,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="881317424"/>
-        <c:axId val="881320176"/>
+        <c:axId val="-242028432"/>
+        <c:axId val="-242025680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="881317424"/>
+        <c:axId val="-242028432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7354,7 +7890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881320176"/>
+        <c:crossAx val="-242025680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7362,7 +7898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881320176"/>
+        <c:axId val="-242025680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,7 +7949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881317424"/>
+        <c:crossAx val="-242028432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7833,11 +8369,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="881347632"/>
-        <c:axId val="881350384"/>
+        <c:axId val="-241999104"/>
+        <c:axId val="-241996352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="881347632"/>
+        <c:axId val="-241999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7879,7 +8415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881350384"/>
+        <c:crossAx val="-241996352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7887,7 +8423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="881350384"/>
+        <c:axId val="-241996352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,7 +8474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881347632"/>
+        <c:crossAx val="-241999104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15893,6 +16429,132 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A2:C32" totalsRowShown="0">
+  <autoFilter ref="A2:C32"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="30">
+      <calculatedColumnFormula>A2+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A35:C65" totalsRowShown="0">
+  <autoFilter ref="A35:C65"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="13">
+      <calculatedColumnFormula>A35+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A68:C98" totalsRowShown="0">
+  <autoFilter ref="A68:C98"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="12">
+      <calculatedColumnFormula>A68+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A101:C131" totalsRowShown="0">
+  <autoFilter ref="A101:C131"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="11">
+      <calculatedColumnFormula>A101+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A134:C164" totalsRowShown="0">
+  <autoFilter ref="A134:C164"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="10">
+      <calculatedColumnFormula>A134+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C22" totalsRowShown="0">
+  <autoFilter ref="A2:C22"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="31">
+      <calculatedColumnFormula>A2+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A25:C45" totalsRowShown="0">
+  <autoFilter ref="A25:C45"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="26">
+      <calculatedColumnFormula>A25+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A48:C68" totalsRowShown="0">
+  <autoFilter ref="A48:C68"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="25">
+      <calculatedColumnFormula>A48+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A71:C91" totalsRowShown="0">
+  <autoFilter ref="A71:C91"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Void Nr" dataDxfId="24">
+      <calculatedColumnFormula>A71+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Recovery rate" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Error rate" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16158,8 +16820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF19"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="S2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17140,10 +17802,1948 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:C164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A32" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.873</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <f>A36+1</f>
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <f t="shared" ref="A38:A65" si="1">A37+1</f>
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C38" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <f>A69+1</f>
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <f t="shared" ref="A71:A98" si="2">A70+1</f>
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C95" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <f>A102+1</f>
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <f t="shared" ref="A104:A131" si="3">A103+1</f>
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C107" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.877</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <f>A135+1</f>
+        <v>2</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <f t="shared" ref="A137:A164" si="4">A136+1</f>
+        <v>3</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="C153" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A67:C67"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B33 A34 B35:B66 B68:B1048576 A67">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C33 C35:C66 C68:C1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17687,4 +20287,1090 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <f>A26+1</f>
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <f t="shared" ref="A28:A45" si="1">A27+1</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <f t="shared" ref="A51:A68" si="2">A50+1</f>
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <f>A72+1</f>
+        <v>2</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <f t="shared" ref="A74:A91" si="3">A73+1</f>
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="C75" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C79" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="C91" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A70:C70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>